--- a/Exemplo_Proposta_Saude.xlsx
+++ b/Exemplo_Proposta_Saude.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="EstaPasta_de_trabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/64462/Documents/Dropbox/Documents_LG/Zeug/Martins &amp; Santiago/Vovisk/Gerador_Propostas/03_Code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/64462/Documents/Dropbox/Documents_LG/Zeug/Martins &amp; Santiago/Vovisk/Gerador_Propostas/GeradorProposta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E63BB6C-495E-F94A-9DBD-2D440DC8A49F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F32995-FB30-EF40-BBD5-BB7C5E9DE196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="39340" yWindow="2320" windowWidth="29060" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,9 +42,6 @@
     <t>Cliente</t>
   </si>
   <si>
-    <t>Fernanda Ferraz</t>
-  </si>
-  <si>
     <t>abc</t>
   </si>
   <si>
@@ -67,6 +64,9 @@
   </si>
   <si>
     <t>valor</t>
+  </si>
+  <si>
+    <t>Julia Wolf</t>
   </si>
 </sst>
 </file>
@@ -501,7 +501,7 @@
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -533,7 +533,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -897,24 +897,24 @@
   <sheetData>
     <row r="1" spans="1:5" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="5">
         <v>123</v>
@@ -931,7 +931,7 @@
     </row>
     <row r="3" spans="1:5" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="5">
         <v>456</v>
@@ -948,7 +948,7 @@
     </row>
     <row r="4" spans="1:5" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="7">
         <f>SUM(B2:B3)</f>
@@ -990,16 +990,16 @@
   <sheetData>
     <row r="1" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="5">
         <v>123</v>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="3" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="5">
         <v>456</v>
@@ -1017,7 +1017,7 @@
     </row>
     <row r="4" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="7">
         <f>SUM(B2:B3)</f>
@@ -1060,18 +1060,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="5">
         <v>123</v>
@@ -1082,7 +1082,7 @@
     </row>
     <row r="3" spans="1:3" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="5">
         <v>456</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="4" spans="1:3" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="7">
         <f>SUM(B2:B3)</f>

--- a/Exemplo_Proposta_Saude.xlsx
+++ b/Exemplo_Proposta_Saude.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/64462/Documents/Dropbox/Documents_LG/Zeug/Martins &amp; Santiago/Vovisk/Gerador_Propostas/GeradorProposta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F32995-FB30-EF40-BBD5-BB7C5E9DE196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125D7E1A-02A6-E940-8DE7-7F929184CD96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39340" yWindow="2320" windowWidth="29060" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Config" sheetId="11" r:id="rId1"/>
-    <sheet name="PORTO SEGURO" sheetId="13" r:id="rId2"/>
-    <sheet name="OMINT" sheetId="1" r:id="rId3"/>
-    <sheet name="ALLIANZ" sheetId="2" r:id="rId4"/>
+    <sheet name="PORTO SEGURO" sheetId="13" r:id="rId1"/>
+    <sheet name="OMINT" sheetId="1" r:id="rId2"/>
+    <sheet name="ALLIANZ" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
-  <si>
-    <t>Cliente</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="8">
   <si>
     <t>abc</t>
   </si>
@@ -64,9 +60,6 @@
   </si>
   <si>
     <t>valor</t>
-  </si>
-  <si>
-    <t>Julia Wolf</t>
   </si>
 </sst>
 </file>
@@ -76,7 +69,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,13 +80,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="0"/>
       <name val="Century Gothic"/>
       <family val="2"/>
     </font>
@@ -110,7 +96,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -129,20 +115,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -174,47 +148,29 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,399 +450,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Planilha1">
-    <tabColor theme="4"/>
-  </sheetPr>
-  <dimension ref="A1:Q19"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.1640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Planilha13"/>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -897,24 +466,24 @@
   <sheetData>
     <row r="1" spans="1:5" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="5">
         <v>123</v>
@@ -931,7 +500,7 @@
     </row>
     <row r="3" spans="1:5" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="5">
         <v>456</v>
@@ -948,7 +517,7 @@
     </row>
     <row r="4" spans="1:5" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="7">
         <f>SUM(B2:B3)</f>
@@ -973,7 +542,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Planilha2"/>
   <dimension ref="A1:F8"/>
@@ -990,16 +559,16 @@
   <sheetData>
     <row r="1" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="5">
         <v>123</v>
@@ -1008,7 +577,7 @@
     </row>
     <row r="3" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="5">
         <v>456</v>
@@ -1017,7 +586,7 @@
     </row>
     <row r="4" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="7">
         <f>SUM(B2:B3)</f>
@@ -1043,7 +612,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Planilha3"/>
   <dimension ref="A1:C4"/>
@@ -1060,18 +629,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="5">
         <v>123</v>
@@ -1082,7 +651,7 @@
     </row>
     <row r="3" spans="1:3" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="5">
         <v>456</v>
@@ -1093,7 +662,7 @@
     </row>
     <row r="4" spans="1:3" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="7">
         <f>SUM(B2:B3)</f>
